--- a/csv/model/CIMS_base/formula_CIMS_base_ON.xlsx
+++ b/csv/model/CIMS_base/formula_CIMS_base_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712DA555-4B84-4FF0-A1B3-1BC5A99EBA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CE8E49-8093-435E-9A27-760AD53EE960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B215195-E3AB-4DE2-9CF1-63816E5D191F}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{7904CD84-6F07-4CDD-B6F5-7C81E9A474F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6154,21 +6154,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847D6B05-0DD0-48A5-8E89-812534D985D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471D3CAC-42B8-4EF1-AE58-B0CCBB0B139D}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6355,51 +6355,51 @@
         <v>26</v>
       </c>
       <c r="M6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
         <v>11683290</v>
       </c>
       <c r="N6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
         <v>12528663</v>
       </c>
       <c r="O6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
         <v>13135778</v>
       </c>
       <c r="P6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
         <v>13707118</v>
       </c>
       <c r="Q6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
         <v>14745712</v>
       </c>
       <c r="R6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
         <v>15465400</v>
       </c>
       <c r="S6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
         <v>16239800</v>
       </c>
       <c r="T6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
         <v>16942700</v>
       </c>
       <c r="U6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
         <v>17554000</v>
       </c>
       <c r="V6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
         <v>18190299.614554629</v>
       </c>
       <c r="W6">
-        <f>INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
         <v>18810127.574946489</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6422,47 +6422,47 @@
         <v>28</v>
       </c>
       <c r="M7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
         <v>625551.39030649094</v>
       </c>
       <c r="N7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
         <v>706743.47482148267</v>
       </c>
       <c r="O7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
         <v>723831.37749221735</v>
       </c>
       <c r="P7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
         <v>799780.92126918025</v>
       </c>
       <c r="Q7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
         <v>840840.8710141218</v>
       </c>
       <c r="R7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
         <v>949038.97595050232</v>
       </c>
       <c r="S7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
         <v>1051229.1619671376</v>
       </c>
       <c r="T7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
         <v>1156110.8136380666</v>
       </c>
       <c r="U7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
         <v>1277087.680176323</v>
       </c>
       <c r="V7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
         <v>1410173.5242795805</v>
       </c>
       <c r="W7">
-        <f>INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
+        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
         <v>1550328.9898299354</v>
       </c>
     </row>

--- a/csv/model/CIMS_base/formula_CIMS_base_ON.xlsx
+++ b/csv/model/CIMS_base/formula_CIMS_base_ON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\CIMS_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CE8E49-8093-435E-9A27-760AD53EE960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA682C8-54BC-48C9-8336-115D7403412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{7904CD84-6F07-4CDD-B6F5-7C81E9A474F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72F91A12-9790-487B-831F-D47647A2407B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -192,13 +214,15 @@
       <sheetName val="Prices"/>
       <sheetName val="Carbon_tax"/>
       <sheetName val="Demand"/>
+      <sheetName val="Elec markups"/>
+      <sheetName val="CER"/>
       <sheetName val="Conversions"/>
       <sheetName val="Coefficients"/>
     </sheetNames>
     <definedNames>
-      <definedName name="pyCIMS_GDP" refersTo="='Macro'!$D$59:$R$74"/>
-      <definedName name="pyCIMS_population" refersTo="='Macro'!$D$4:$R$19"/>
-      <definedName name="pyCIMS_year" refersTo="='Macro'!$D$1:$R$1"/>
+      <definedName name="CIMS_GDP" refersTo="='Macro'!$D$59:$R$74"/>
+      <definedName name="CIMS_population" refersTo="='Macro'!$D$4:$R$19"/>
+      <definedName name="CIMS_year" refersTo="='Macro'!$D$1:$R$1"/>
       <definedName name="region_CIMS" refersTo="='Control'!$B$19:$B$34"/>
     </definedNames>
     <sheetDataSet>
@@ -299,6 +323,51 @@
             <v>TR</v>
           </cell>
         </row>
+        <row r="59">
+          <cell r="D59" t="str">
+            <v>Industrial</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60" t="str">
+            <v>Commercial</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61" t="str">
+            <v>Industrial</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64" t="str">
+            <v>CER fuels</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65" t="str">
+            <v>Electricity</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66" t="str">
+            <v>Natural Gas</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67" t="str">
+            <v>Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68" t="str">
+            <v>Gasoline</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69" t="str">
+            <v>Diesel</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -2295,31 +2364,31 @@
             <v>GJ</v>
           </cell>
           <cell r="I17" t="str">
-            <v>pyCIMS</v>
+            <v>CER</v>
           </cell>
           <cell r="K17">
-            <v>1</v>
+            <v>11.771416341000174</v>
           </cell>
           <cell r="L17">
-            <v>1</v>
+            <v>12.086123636069974</v>
           </cell>
           <cell r="M17">
-            <v>1</v>
+            <v>13.770920548236083</v>
           </cell>
           <cell r="N17">
-            <v>1</v>
+            <v>16.358872616858644</v>
           </cell>
           <cell r="O17">
-            <v>1</v>
+            <v>17.569872231974031</v>
           </cell>
           <cell r="P17">
-            <v>1</v>
+            <v>18.122399914601161</v>
           </cell>
           <cell r="Q17">
-            <v>1</v>
+            <v>18.701809249326345</v>
           </cell>
           <cell r="R17">
-            <v>1</v>
+            <v>19.04278218850915</v>
           </cell>
         </row>
         <row r="18">
@@ -2339,31 +2408,31 @@
             <v>GJ</v>
           </cell>
           <cell r="I18" t="str">
-            <v>pyCIMS</v>
+            <v>CER</v>
           </cell>
           <cell r="K18">
-            <v>1</v>
+            <v>16.217127036453075</v>
           </cell>
           <cell r="L18">
-            <v>1</v>
+            <v>16.468106697367272</v>
           </cell>
           <cell r="M18">
-            <v>1</v>
+            <v>19.604275328408644</v>
           </cell>
           <cell r="N18">
-            <v>1</v>
+            <v>18.942155917143779</v>
           </cell>
           <cell r="O18">
-            <v>1</v>
+            <v>26.63650638910439</v>
           </cell>
           <cell r="P18">
-            <v>1</v>
+            <v>30.853601591345132</v>
           </cell>
           <cell r="Q18">
-            <v>1</v>
+            <v>29.138115588333637</v>
           </cell>
           <cell r="R18">
-            <v>1</v>
+            <v>29.29379240167458</v>
           </cell>
         </row>
         <row r="19">
@@ -2383,31 +2452,31 @@
             <v>GJ</v>
           </cell>
           <cell r="I19" t="str">
-            <v>pyCIMS</v>
+            <v>CER</v>
           </cell>
           <cell r="K19">
-            <v>1</v>
+            <v>18.87119975589912</v>
           </cell>
           <cell r="L19">
-            <v>1</v>
+            <v>20.054571632219091</v>
           </cell>
           <cell r="M19">
-            <v>1</v>
+            <v>22.479254311443441</v>
           </cell>
           <cell r="N19">
-            <v>1</v>
+            <v>25.421474866158949</v>
           </cell>
           <cell r="O19">
-            <v>1</v>
+            <v>29.418058936757351</v>
           </cell>
           <cell r="P19">
-            <v>1</v>
+            <v>30.972746062531844</v>
           </cell>
           <cell r="Q19">
-            <v>1</v>
+            <v>31.797943331654654</v>
           </cell>
           <cell r="R19">
-            <v>1</v>
+            <v>32.066931792689836</v>
           </cell>
         </row>
         <row r="26">
@@ -2418,710 +2487,6 @@
         <row r="27">
           <cell r="B27" t="str">
             <v>CNZ</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Natural Gas</v>
-          </cell>
-          <cell r="F59">
-            <v>2020</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I59" t="str">
-            <v>CER (avg calc)</v>
-          </cell>
-          <cell r="K59">
-            <v>25.947561036380627</v>
-          </cell>
-          <cell r="L59">
-            <v>25.947561036380627</v>
-          </cell>
-          <cell r="M59">
-            <v>24.887150647840976</v>
-          </cell>
-          <cell r="N59">
-            <v>17.826515795134856</v>
-          </cell>
-          <cell r="O59">
-            <v>15.870329435559558</v>
-          </cell>
-          <cell r="P59">
-            <v>15.930427844669392</v>
-          </cell>
-          <cell r="Q59">
-            <v>15.830628425995824</v>
-          </cell>
-          <cell r="R59">
-            <v>16.495007580135809</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Natural Gas</v>
-          </cell>
-          <cell r="F60">
-            <v>2020</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H60" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I60" t="str">
-            <v>CER (avg calc)</v>
-          </cell>
-          <cell r="K60">
-            <v>15.829446753962097</v>
-          </cell>
-          <cell r="L60">
-            <v>15.829446753962097</v>
-          </cell>
-          <cell r="M60">
-            <v>15.737222436815371</v>
-          </cell>
-          <cell r="N60">
-            <v>12.867190205762206</v>
-          </cell>
-          <cell r="O60">
-            <v>9.6324675600947867</v>
-          </cell>
-          <cell r="P60">
-            <v>9.4753512936852431</v>
-          </cell>
-          <cell r="Q60">
-            <v>9.1760686193184977</v>
-          </cell>
-          <cell r="R60">
-            <v>9.8596811444474053</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F61">
-            <v>2020</v>
-          </cell>
-          <cell r="G61" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H61" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I61" t="str">
-            <v>CER (weighted avg calc)</v>
-          </cell>
-          <cell r="K61">
-            <v>25.352936391503111</v>
-          </cell>
-          <cell r="L61">
-            <v>25.352936391503111</v>
-          </cell>
-          <cell r="M61">
-            <v>27.689634148856342</v>
-          </cell>
-          <cell r="N61">
-            <v>29.093849222101198</v>
-          </cell>
-          <cell r="O61">
-            <v>31.487633146999165</v>
-          </cell>
-          <cell r="P61">
-            <v>34.301817041496228</v>
-          </cell>
-          <cell r="Q61">
-            <v>34.54282017955169</v>
-          </cell>
-          <cell r="R61">
-            <v>34.595803026122553</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F62">
-            <v>2020</v>
-          </cell>
-          <cell r="G62" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H62" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I62" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K62">
-            <v>28.821698675148614</v>
-          </cell>
-          <cell r="L62">
-            <v>28.821698675148614</v>
-          </cell>
-          <cell r="M62">
-            <v>32.232010511145539</v>
-          </cell>
-          <cell r="N62">
-            <v>32.499820131145491</v>
-          </cell>
-          <cell r="O62">
-            <v>35.794556796014355</v>
-          </cell>
-          <cell r="P62">
-            <v>37.99714314931159</v>
-          </cell>
-          <cell r="Q62">
-            <v>38.800303489547581</v>
-          </cell>
-          <cell r="R62">
-            <v>38.743747565625355</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F63">
-            <v>2020</v>
-          </cell>
-          <cell r="G63" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H63" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I63" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K63">
-            <v>24.5949470651965</v>
-          </cell>
-          <cell r="L63">
-            <v>24.5949470651965</v>
-          </cell>
-          <cell r="M63">
-            <v>27.421405921883405</v>
-          </cell>
-          <cell r="N63">
-            <v>25.934654364731465</v>
-          </cell>
-          <cell r="O63">
-            <v>26.825004115732948</v>
-          </cell>
-          <cell r="P63">
-            <v>29.650974941978415</v>
-          </cell>
-          <cell r="Q63">
-            <v>29.946222047230179</v>
-          </cell>
-          <cell r="R63">
-            <v>29.522278414384466</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F64">
-            <v>2020</v>
-          </cell>
-          <cell r="G64" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K64">
-            <v>26.307387342454344</v>
-          </cell>
-          <cell r="L64">
-            <v>26.307387342454344</v>
-          </cell>
-          <cell r="M64">
-            <v>28.840593201474896</v>
-          </cell>
-          <cell r="N64">
-            <v>27.276875826064266</v>
-          </cell>
-          <cell r="O64">
-            <v>29.43452674811622</v>
-          </cell>
-          <cell r="P64">
-            <v>32.71925503433593</v>
-          </cell>
-          <cell r="Q64">
-            <v>33.552377882431614</v>
-          </cell>
-          <cell r="R64">
-            <v>33.670366769615548</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F65">
-            <v>2020</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I65" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K65">
-            <v>26.344507779252858</v>
-          </cell>
-          <cell r="L65">
-            <v>26.344507779252858</v>
-          </cell>
-          <cell r="M65">
-            <v>28.66079671753722</v>
-          </cell>
-          <cell r="N65">
-            <v>27.129309103725475</v>
-          </cell>
-          <cell r="O65">
-            <v>30.003394948656542</v>
-          </cell>
-          <cell r="P65">
-            <v>33.298686456795714</v>
-          </cell>
-          <cell r="Q65">
-            <v>34.17612746030732</v>
-          </cell>
-          <cell r="R65">
-            <v>34.292264261912543</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F66">
-            <v>2020</v>
-          </cell>
-          <cell r="G66" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H66" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K66">
-            <v>25.387432386254929</v>
-          </cell>
-          <cell r="L66">
-            <v>25.387432386254929</v>
-          </cell>
-          <cell r="M66">
-            <v>29.577686542763686</v>
-          </cell>
-          <cell r="N66">
-            <v>31.881950069412305</v>
-          </cell>
-          <cell r="O66">
-            <v>36.529347650698789</v>
-          </cell>
-          <cell r="P66">
-            <v>39.921492835306061</v>
-          </cell>
-          <cell r="Q66">
-            <v>40.829454685768781</v>
-          </cell>
-          <cell r="R66">
-            <v>40.937633375638221</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F67">
-            <v>2020</v>
-          </cell>
-          <cell r="G67" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K67">
-            <v>24.341341709732479</v>
-          </cell>
-          <cell r="L67">
-            <v>24.341341709732479</v>
-          </cell>
-          <cell r="M67">
-            <v>26.598700737563217</v>
-          </cell>
-          <cell r="N67">
-            <v>28.748131391948977</v>
-          </cell>
-          <cell r="O67">
-            <v>29.73149549270876</v>
-          </cell>
-          <cell r="P67">
-            <v>34.683168423414791</v>
-          </cell>
-          <cell r="Q67">
-            <v>35.366451719759873</v>
-          </cell>
-          <cell r="R67">
-            <v>35.490302822565823</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F68">
-            <v>2020</v>
-          </cell>
-          <cell r="G68" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H68" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I68" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K68">
-            <v>26.855017023975996</v>
-          </cell>
-          <cell r="L68">
-            <v>26.855017023975996</v>
-          </cell>
-          <cell r="M68">
-            <v>28.133103536234639</v>
-          </cell>
-          <cell r="N68">
-            <v>28.705856361209662</v>
-          </cell>
-          <cell r="O68">
-            <v>32.513681097749313</v>
-          </cell>
-          <cell r="P68">
-            <v>35.881475069032149</v>
-          </cell>
-          <cell r="Q68">
-            <v>36.743086283046622</v>
-          </cell>
-          <cell r="R68">
-            <v>36.864692174359</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F69">
-            <v>2020</v>
-          </cell>
-          <cell r="G69" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H69" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I69" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K69">
-            <v>26.879404574793426</v>
-          </cell>
-          <cell r="L69">
-            <v>26.879404574793426</v>
-          </cell>
-          <cell r="M69">
-            <v>25.909958864715819</v>
-          </cell>
-          <cell r="N69">
-            <v>27.967360096094254</v>
-          </cell>
-          <cell r="O69">
-            <v>30.416483768849162</v>
-          </cell>
-          <cell r="P69">
-            <v>33.583389323916819</v>
-          </cell>
-          <cell r="Q69">
-            <v>34.544638594886109</v>
-          </cell>
-          <cell r="R69">
-            <v>34.672813783375474</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F70">
-            <v>2020</v>
-          </cell>
-          <cell r="G70" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H70" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I70" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K70">
-            <v>23.198173232822104</v>
-          </cell>
-          <cell r="L70">
-            <v>23.198173232822104</v>
-          </cell>
-          <cell r="M70">
-            <v>24.718896640091597</v>
-          </cell>
-          <cell r="N70">
-            <v>23.996369211665066</v>
-          </cell>
-          <cell r="O70">
-            <v>26.939011680945764</v>
-          </cell>
-          <cell r="P70">
-            <v>29.965752802285824</v>
-          </cell>
-          <cell r="Q70">
-            <v>30.85448000320909</v>
-          </cell>
-          <cell r="R70">
-            <v>31.011696870591216</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F71">
-            <v>2020</v>
-          </cell>
-          <cell r="G71" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H71" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I71" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K71">
-            <v>25.636882590893777</v>
-          </cell>
-          <cell r="L71">
-            <v>25.636882590893777</v>
-          </cell>
-          <cell r="M71">
-            <v>27.255906089563879</v>
-          </cell>
-          <cell r="N71">
-            <v>23.545195458641519</v>
-          </cell>
-          <cell r="O71">
-            <v>25.766393810994195</v>
-          </cell>
-          <cell r="P71">
-            <v>24.923909788586894</v>
-          </cell>
-          <cell r="Q71">
-            <v>21.199318537751218</v>
-          </cell>
-          <cell r="R71">
-            <v>22.498007082101257</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F72">
-            <v>2020</v>
-          </cell>
-          <cell r="G72" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H72" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I72" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K72">
-            <v>28.829318793142669</v>
-          </cell>
-          <cell r="L72">
-            <v>28.829318793142669</v>
-          </cell>
-          <cell r="M72">
-            <v>32.767394814606583</v>
-          </cell>
-          <cell r="N72">
-            <v>30.894233250201932</v>
-          </cell>
-          <cell r="O72">
-            <v>30.516719255515376</v>
-          </cell>
-          <cell r="P72">
-            <v>29.517081182076385</v>
-          </cell>
-          <cell r="Q72">
-            <v>25.905917982978266</v>
-          </cell>
-          <cell r="R72">
-            <v>27.198723015538619</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F73">
-            <v>2020</v>
-          </cell>
-          <cell r="G73" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H73" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I73" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K73">
-            <v>26.726587733652558</v>
-          </cell>
-          <cell r="L73">
-            <v>26.726587733652558</v>
-          </cell>
-          <cell r="M73">
-            <v>30.162292165124871</v>
-          </cell>
-          <cell r="N73">
-            <v>29.47736314732904</v>
-          </cell>
-          <cell r="O73">
-            <v>26.615701212805178</v>
-          </cell>
-          <cell r="P73">
-            <v>25.621158527607747</v>
-          </cell>
-          <cell r="Q73">
-            <v>22.002206272110072</v>
-          </cell>
-          <cell r="R73">
-            <v>23.298984314096462</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>Oil</v>
-          </cell>
-          <cell r="F74">
-            <v>2020</v>
-          </cell>
-          <cell r="G74" t="str">
-            <v>CAD</v>
-          </cell>
-          <cell r="H74" t="str">
-            <v>GJ</v>
-          </cell>
-          <cell r="I74" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K74">
-            <v>26.726587733652558</v>
-          </cell>
-          <cell r="L74">
-            <v>26.726587733652558</v>
-          </cell>
-          <cell r="M74">
-            <v>30.162292165124871</v>
-          </cell>
-          <cell r="N74">
-            <v>29.47736314732904</v>
-          </cell>
-          <cell r="O74">
-            <v>26.615701212805178</v>
-          </cell>
-          <cell r="P74">
-            <v>25.621158527607747</v>
-          </cell>
-          <cell r="Q74">
-            <v>22.002206272110072</v>
-          </cell>
-          <cell r="R74">
-            <v>23.298984314096462</v>
           </cell>
         </row>
       </sheetData>
@@ -3801,658 +3166,1140 @@
             <v>2035</v>
           </cell>
         </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>Natural Gas</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I59" t="str">
-            <v>CER (avg calc)</v>
-          </cell>
-          <cell r="K59">
-            <v>0.19125</v>
-          </cell>
-          <cell r="L59">
-            <v>0.19125</v>
-          </cell>
-          <cell r="M59">
-            <v>0.185775</v>
-          </cell>
-          <cell r="N59">
-            <v>0.22</v>
-          </cell>
-          <cell r="O59">
-            <v>0.22052499999999997</v>
-          </cell>
-          <cell r="P59">
-            <v>0.21505000000000002</v>
-          </cell>
-          <cell r="Q59">
-            <v>0.18557499999999999</v>
-          </cell>
-          <cell r="R59">
-            <v>0.16272500000000001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>Natural Gas</v>
-          </cell>
-          <cell r="H60" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I60" t="str">
-            <v>CER (avg calc)</v>
-          </cell>
-          <cell r="K60">
-            <v>6.133333333333333E-2</v>
-          </cell>
-          <cell r="L60">
-            <v>6.133333333333333E-2</v>
-          </cell>
-          <cell r="M60">
-            <v>0.11803333333333334</v>
-          </cell>
-          <cell r="N60">
-            <v>2.8666666666666663E-2</v>
-          </cell>
-          <cell r="O60">
-            <v>2.4300000000000002E-2</v>
-          </cell>
-          <cell r="P60">
-            <v>4.3E-3</v>
-          </cell>
-          <cell r="Q60">
-            <v>2.3666666666666667E-3</v>
-          </cell>
-          <cell r="R60">
-            <v>1.2666666666666666E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H61" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="K61">
-            <v>138.92420000000001</v>
-          </cell>
-          <cell r="L61">
-            <v>138.92420000000001</v>
-          </cell>
-          <cell r="M61">
-            <v>120.87720000000002</v>
-          </cell>
-          <cell r="N61">
-            <v>84.262500000000003</v>
-          </cell>
-          <cell r="O61">
-            <v>62.07</v>
-          </cell>
-          <cell r="P61">
-            <v>48.657700000000006</v>
-          </cell>
-          <cell r="Q61">
-            <v>41.023900000000005</v>
-          </cell>
-          <cell r="R61">
-            <v>36.169000000000004</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H62" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I62" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K62">
-            <v>4.3559999999999999</v>
-          </cell>
-          <cell r="L62">
-            <v>4.3559999999999999</v>
-          </cell>
-          <cell r="M62">
-            <v>2.6728999999999998</v>
-          </cell>
-          <cell r="N62">
-            <v>1.0529999999999999</v>
-          </cell>
-          <cell r="O62">
-            <v>1.016</v>
-          </cell>
-          <cell r="P62">
-            <v>0.85729999999999995</v>
-          </cell>
-          <cell r="Q62">
-            <v>0.67559999999999998</v>
-          </cell>
-          <cell r="R62">
-            <v>0.58360000000000001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H63" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I63" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K63">
-            <v>1.218</v>
-          </cell>
-          <cell r="L63">
-            <v>1.218</v>
-          </cell>
-          <cell r="M63">
-            <v>1.62</v>
-          </cell>
-          <cell r="N63">
-            <v>1.7241</v>
-          </cell>
-          <cell r="O63">
-            <v>1.7689999999999999</v>
-          </cell>
-          <cell r="P63">
-            <v>1.6361000000000001</v>
-          </cell>
-          <cell r="Q63">
-            <v>1.5373000000000001</v>
-          </cell>
-          <cell r="R63">
-            <v>1.4926999999999999</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K64">
-            <v>1.016</v>
-          </cell>
-          <cell r="L64">
-            <v>1.016</v>
-          </cell>
-          <cell r="M64">
-            <v>0.9</v>
-          </cell>
-          <cell r="N64">
-            <v>0.68700000000000006</v>
-          </cell>
-          <cell r="O64">
-            <v>0.372</v>
-          </cell>
-          <cell r="P64">
-            <v>0.22109999999999999</v>
-          </cell>
-          <cell r="Q64">
-            <v>0.14979999999999999</v>
-          </cell>
-          <cell r="R64">
-            <v>0.1047</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I65" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K65">
-            <v>0.3901</v>
-          </cell>
-          <cell r="L65">
-            <v>0.3901</v>
-          </cell>
-          <cell r="M65">
-            <v>0.50800000000000001</v>
-          </cell>
-          <cell r="N65">
-            <v>0.37209999999999999</v>
-          </cell>
-          <cell r="O65">
-            <v>0.49220000000000003</v>
-          </cell>
-          <cell r="P65">
-            <v>0.31690000000000002</v>
-          </cell>
-          <cell r="Q65">
-            <v>0.27179999999999999</v>
-          </cell>
-          <cell r="R65">
-            <v>0.24049999999999999</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H66" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K66">
-            <v>41.999099999999999</v>
-          </cell>
-          <cell r="L66">
-            <v>41.999099999999999</v>
-          </cell>
-          <cell r="M66">
-            <v>37.487000000000002</v>
-          </cell>
-          <cell r="N66">
-            <v>25.202100000000002</v>
-          </cell>
-          <cell r="O66">
-            <v>16.2529</v>
-          </cell>
-          <cell r="P66">
-            <v>10.912000000000001</v>
-          </cell>
-          <cell r="Q66">
-            <v>9.0859000000000005</v>
-          </cell>
-          <cell r="R66">
-            <v>7.8308</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K67">
-            <v>52.942</v>
-          </cell>
-          <cell r="L67">
-            <v>52.942</v>
-          </cell>
-          <cell r="M67">
-            <v>33.133000000000003</v>
-          </cell>
-          <cell r="N67">
-            <v>21.225100000000001</v>
-          </cell>
-          <cell r="O67">
-            <v>13.255000000000001</v>
-          </cell>
-          <cell r="P67">
-            <v>7.7271000000000001</v>
-          </cell>
-          <cell r="Q67">
-            <v>5.0659999999999998</v>
-          </cell>
-          <cell r="R67">
-            <v>3.3805999999999998</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H68" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I68" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K68">
-            <v>8.7760999999999996</v>
-          </cell>
-          <cell r="L68">
-            <v>8.7760999999999996</v>
-          </cell>
-          <cell r="M68">
-            <v>9.9651999999999994</v>
-          </cell>
-          <cell r="N68">
-            <v>8.1929999999999996</v>
-          </cell>
-          <cell r="O68">
-            <v>5.31</v>
-          </cell>
-          <cell r="P68">
-            <v>5.1571999999999996</v>
-          </cell>
-          <cell r="Q68">
-            <v>4.6386000000000003</v>
-          </cell>
-          <cell r="R68">
-            <v>4.2362000000000002</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H69" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I69" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K69">
-            <v>17.571999999999999</v>
-          </cell>
-          <cell r="L69">
-            <v>17.571999999999999</v>
-          </cell>
-          <cell r="M69">
-            <v>22.601099999999999</v>
-          </cell>
-          <cell r="N69">
-            <v>17.588999999999999</v>
-          </cell>
-          <cell r="O69">
-            <v>15.4857</v>
-          </cell>
-          <cell r="P69">
-            <v>14.2789</v>
-          </cell>
-          <cell r="Q69">
-            <v>12.801500000000001</v>
-          </cell>
-          <cell r="R69">
-            <v>11.847099999999999</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H70" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I70" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K70">
-            <v>4.0869</v>
-          </cell>
-          <cell r="L70">
-            <v>4.0869</v>
-          </cell>
-          <cell r="M70">
-            <v>4.915</v>
-          </cell>
-          <cell r="N70">
-            <v>2.847</v>
-          </cell>
-          <cell r="O70">
-            <v>2.6602000000000001</v>
-          </cell>
-          <cell r="P70">
-            <v>2.5773999999999999</v>
-          </cell>
-          <cell r="Q70">
-            <v>2.3856999999999999</v>
-          </cell>
-          <cell r="R70">
-            <v>2.3178999999999998</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H71" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I71" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K71">
-            <v>4.6109</v>
-          </cell>
-          <cell r="L71">
-            <v>4.6109</v>
-          </cell>
-          <cell r="M71">
-            <v>5.5549999999999997</v>
-          </cell>
-          <cell r="N71">
-            <v>4.0030000000000001</v>
-          </cell>
-          <cell r="O71">
-            <v>4.6670999999999996</v>
-          </cell>
-          <cell r="P71">
-            <v>4.3627000000000002</v>
-          </cell>
-          <cell r="Q71">
-            <v>3.9775999999999998</v>
-          </cell>
-          <cell r="R71">
-            <v>3.7892000000000001</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H72" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I72" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K72">
-            <v>0.65010000000000001</v>
-          </cell>
-          <cell r="L72">
-            <v>0.65010000000000001</v>
-          </cell>
-          <cell r="M72">
-            <v>0.45600000000000002</v>
-          </cell>
-          <cell r="N72">
-            <v>7.3099999999999998E-2</v>
-          </cell>
-          <cell r="O72">
-            <v>0.12590000000000001</v>
-          </cell>
-          <cell r="P72">
-            <v>8.8499999999999995E-2</v>
-          </cell>
-          <cell r="Q72">
-            <v>6.0100000000000001E-2</v>
-          </cell>
-          <cell r="R72">
-            <v>4.2799999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H73" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I73" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K73">
-            <v>1.306</v>
-          </cell>
-          <cell r="L73">
-            <v>1.306</v>
-          </cell>
-          <cell r="M73">
-            <v>1.0629999999999999</v>
-          </cell>
-          <cell r="N73">
-            <v>1.2929999999999999</v>
-          </cell>
-          <cell r="O73">
-            <v>0.66300000000000003</v>
-          </cell>
-          <cell r="P73">
-            <v>0.52159999999999995</v>
-          </cell>
-          <cell r="Q73">
-            <v>0.37309999999999999</v>
-          </cell>
-          <cell r="R73">
-            <v>0.30209999999999998</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>Residential</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>RPP</v>
-          </cell>
-          <cell r="H74" t="str">
-            <v>PJ</v>
-          </cell>
-          <cell r="I74" t="str">
-            <v>CER</v>
-          </cell>
-          <cell r="K74">
-            <v>1E-3</v>
-          </cell>
-          <cell r="L74">
-            <v>1E-3</v>
-          </cell>
-          <cell r="M74">
-            <v>1E-3</v>
-          </cell>
-          <cell r="N74">
-            <v>1E-3</v>
-          </cell>
-          <cell r="O74">
-            <v>1E-3</v>
-          </cell>
-          <cell r="P74">
-            <v>8.9999999999999998E-4</v>
-          </cell>
-          <cell r="Q74">
-            <v>8.9999999999999998E-4</v>
-          </cell>
-          <cell r="R74">
-            <v>8.0000000000000004E-4</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="D1" t="str">
-            <v>To</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Multiply by</v>
+            <v>Commercial</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Industrial</v>
+          </cell>
+          <cell r="G1">
+            <v>2000</v>
+          </cell>
+          <cell r="H1">
+            <v>2001</v>
+          </cell>
+          <cell r="I1">
+            <v>2002</v>
+          </cell>
+          <cell r="J1">
+            <v>2003</v>
+          </cell>
+          <cell r="K1">
+            <v>2004</v>
+          </cell>
+          <cell r="L1">
+            <v>2005</v>
+          </cell>
+          <cell r="M1">
+            <v>2006</v>
+          </cell>
+          <cell r="N1">
+            <v>2007</v>
+          </cell>
+          <cell r="O1">
+            <v>2008</v>
+          </cell>
+          <cell r="P1">
+            <v>2009</v>
+          </cell>
+          <cell r="Q1">
+            <v>2010</v>
+          </cell>
+          <cell r="R1">
+            <v>2011</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="D4" t="str">
-            <v>Litre</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>l</v>
+          <cell r="D4">
+            <v>1.7</v>
+          </cell>
+          <cell r="E4">
+            <v>1.4</v>
           </cell>
           <cell r="G4">
-            <v>3.7854000000000001</v>
+            <v>15.938184889998666</v>
+          </cell>
+          <cell r="H4">
+            <v>15.938184889998666</v>
+          </cell>
+          <cell r="I4">
+            <v>16.176831247143408</v>
+          </cell>
+          <cell r="J4">
+            <v>16.655268564438959</v>
+          </cell>
+          <cell r="K4">
+            <v>17.68553320197298</v>
+          </cell>
+          <cell r="L4">
+            <v>18.084189040854593</v>
+          </cell>
+          <cell r="M4">
+            <v>18.126250987864257</v>
+          </cell>
+          <cell r="N4">
+            <v>18.84000244263439</v>
+          </cell>
+          <cell r="O4">
+            <v>19.479219715639889</v>
+          </cell>
+          <cell r="P4">
+            <v>21.162132261499366</v>
+          </cell>
+          <cell r="Q4">
+            <v>21.52812266540521</v>
+          </cell>
+          <cell r="R4">
+            <v>21.243054330275232</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="D5" t="str">
-            <v>Gigajoule</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>GJ</v>
+          <cell r="D5">
+            <v>1.4</v>
+          </cell>
+          <cell r="E5">
+            <v>1.05</v>
           </cell>
           <cell r="G5">
-            <v>1.0550600000000001</v>
+            <v>20.641632142380061</v>
+          </cell>
+          <cell r="H5">
+            <v>20.641632142380061</v>
+          </cell>
+          <cell r="I5">
+            <v>21.002486384976525</v>
+          </cell>
+          <cell r="J5">
+            <v>21.359273839239382</v>
+          </cell>
+          <cell r="K5">
+            <v>21.650358433909805</v>
+          </cell>
+          <cell r="L5">
+            <v>21.936023981510434</v>
+          </cell>
+          <cell r="M5">
+            <v>22.354862407449914</v>
+          </cell>
+          <cell r="N5">
+            <v>22.850874504452449</v>
+          </cell>
+          <cell r="O5">
+            <v>23.310623200918219</v>
+          </cell>
+          <cell r="P5">
+            <v>23.8807959405469</v>
+          </cell>
+          <cell r="Q5">
+            <v>24.588182221259032</v>
+          </cell>
+          <cell r="R5">
+            <v>24.997322279318041</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="D6" t="str">
-            <v>Gigajoule</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>GJ</v>
+          <cell r="D6">
+            <v>1.5</v>
+          </cell>
+          <cell r="E6">
+            <v>1.1000000000000001</v>
           </cell>
           <cell r="G6">
-            <v>3.6</v>
+            <v>12.798414036174719</v>
+          </cell>
+          <cell r="H6">
+            <v>12.798414036174719</v>
+          </cell>
+          <cell r="I6">
+            <v>12.840485527079352</v>
+          </cell>
+          <cell r="J6">
+            <v>12.880917573756482</v>
+          </cell>
+          <cell r="K6">
+            <v>12.88424566501571</v>
+          </cell>
+          <cell r="L6">
+            <v>13.000644814058056</v>
+          </cell>
+          <cell r="M6">
+            <v>13.123126195711459</v>
+          </cell>
+          <cell r="N6">
+            <v>13.251679100857368</v>
+          </cell>
+          <cell r="O6">
+            <v>13.393341468896613</v>
+          </cell>
+          <cell r="P6">
+            <v>13.553251487351067</v>
+          </cell>
+          <cell r="Q6">
+            <v>13.744419209122919</v>
+          </cell>
+          <cell r="R6">
+            <v>13.924878266709229</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1.75</v>
+          </cell>
+          <cell r="E7">
+            <v>1.5</v>
+          </cell>
+          <cell r="G7">
+            <v>20.891525343335005</v>
+          </cell>
+          <cell r="H7">
+            <v>20.891525343335005</v>
+          </cell>
+          <cell r="I7">
+            <v>20.867359047559777</v>
+          </cell>
+          <cell r="J7">
+            <v>20.797188240958889</v>
+          </cell>
+          <cell r="K7">
+            <v>20.755862025812934</v>
+          </cell>
+          <cell r="L7">
+            <v>20.688436206864079</v>
+          </cell>
+          <cell r="M7">
+            <v>20.760662137374052</v>
+          </cell>
+          <cell r="N7">
+            <v>21.001788320532963</v>
+          </cell>
+          <cell r="O7">
+            <v>21.405958903729836</v>
+          </cell>
+          <cell r="P7">
+            <v>21.819980740198986</v>
+          </cell>
+          <cell r="Q7">
+            <v>22.422315509452357</v>
+          </cell>
+          <cell r="R7">
+            <v>22.687809879571876</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>1.85</v>
+          </cell>
+          <cell r="E8">
+            <v>1.25</v>
+          </cell>
+          <cell r="G8">
+            <v>12.803721252368257</v>
+          </cell>
+          <cell r="H8">
+            <v>12.803721252368257</v>
+          </cell>
+          <cell r="I8">
+            <v>12.99667960028682</v>
+          </cell>
+          <cell r="J8">
+            <v>13.175561448312138</v>
+          </cell>
+          <cell r="K8">
+            <v>13.352292859183786</v>
+          </cell>
+          <cell r="L8">
+            <v>13.544454248373</v>
+          </cell>
+          <cell r="M8">
+            <v>13.719482041656056</v>
+          </cell>
+          <cell r="N8">
+            <v>13.873104831023646</v>
+          </cell>
+          <cell r="O8">
+            <v>14.017034551624517</v>
+          </cell>
+          <cell r="P8">
+            <v>14.174747484102122</v>
+          </cell>
+          <cell r="Q8">
+            <v>14.353912670349146</v>
+          </cell>
+          <cell r="R8">
+            <v>14.362642231412229</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1.6</v>
+          </cell>
+          <cell r="E9">
+            <v>1.05</v>
+          </cell>
+          <cell r="G9">
+            <v>20.159485816731102</v>
+          </cell>
+          <cell r="H9">
+            <v>20.159485816731102</v>
+          </cell>
+          <cell r="I9">
+            <v>20.397990064819748</v>
+          </cell>
+          <cell r="J9">
+            <v>20.749212659816752</v>
+          </cell>
+          <cell r="K9">
+            <v>21.222198583547353</v>
+          </cell>
+          <cell r="L9">
+            <v>21.754130297676962</v>
+          </cell>
+          <cell r="M9">
+            <v>22.248797378774608</v>
+          </cell>
+          <cell r="N9">
+            <v>22.754213023786605</v>
+          </cell>
+          <cell r="O9">
+            <v>23.22393975002603</v>
+          </cell>
+          <cell r="P9">
+            <v>23.658891342773561</v>
+          </cell>
+          <cell r="Q9">
+            <v>24.094558483192532</v>
+          </cell>
+          <cell r="R9">
+            <v>24.318066381659364</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1.6</v>
+          </cell>
+          <cell r="E10">
+            <v>1.2</v>
+          </cell>
+          <cell r="G10">
+            <v>19.396313521238877</v>
+          </cell>
+          <cell r="H10">
+            <v>19.396313521238877</v>
+          </cell>
+          <cell r="I10">
+            <v>19.781184157916407</v>
+          </cell>
+          <cell r="J10">
+            <v>20.134738491359517</v>
+          </cell>
+          <cell r="K10">
+            <v>20.432099708934739</v>
+          </cell>
+          <cell r="L10">
+            <v>21.022203157404999</v>
+          </cell>
+          <cell r="M10">
+            <v>21.504448878167935</v>
+          </cell>
+          <cell r="N10">
+            <v>22.127624972991583</v>
+          </cell>
+          <cell r="O10">
+            <v>22.973386046316278</v>
+          </cell>
+          <cell r="P10">
+            <v>23.882437132012694</v>
+          </cell>
+          <cell r="Q10">
+            <v>24.858511245634929</v>
+          </cell>
+          <cell r="R10">
+            <v>25.436605571382557</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>1.6</v>
+          </cell>
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+          <cell r="G11">
+            <v>23.825278491751121</v>
+          </cell>
+          <cell r="H11">
+            <v>23.825278491751121</v>
+          </cell>
+          <cell r="I11">
+            <v>23.838185162587461</v>
+          </cell>
+          <cell r="J11">
+            <v>24.105169044668671</v>
+          </cell>
+          <cell r="K11">
+            <v>24.680510237764171</v>
+          </cell>
+          <cell r="L11">
+            <v>25.872230739230403</v>
+          </cell>
+          <cell r="M11">
+            <v>26.691279337312114</v>
+          </cell>
+          <cell r="N11">
+            <v>27.034028067375754</v>
+          </cell>
+          <cell r="O11">
+            <v>27.337907595903662</v>
+          </cell>
+          <cell r="P11">
+            <v>27.983685183796911</v>
+          </cell>
+          <cell r="Q11">
+            <v>28.675576915779612</v>
+          </cell>
+          <cell r="R11">
+            <v>29.417269220995323</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>1.4</v>
+          </cell>
+          <cell r="E12">
+            <v>1.2</v>
+          </cell>
+          <cell r="G12">
+            <v>19.105314401242016</v>
+          </cell>
+          <cell r="H12">
+            <v>19.105314401242016</v>
+          </cell>
+          <cell r="I12">
+            <v>19.404292816168798</v>
+          </cell>
+          <cell r="J12">
+            <v>19.764260989179398</v>
+          </cell>
+          <cell r="K12">
+            <v>20.058160261081596</v>
+          </cell>
+          <cell r="L12">
+            <v>20.523715667276761</v>
+          </cell>
+          <cell r="M12">
+            <v>20.834470499952019</v>
+          </cell>
+          <cell r="N12">
+            <v>21.162706572015999</v>
+          </cell>
+          <cell r="O12">
+            <v>21.689470223628984</v>
+          </cell>
+          <cell r="P12">
+            <v>22.328044109143288</v>
+          </cell>
+          <cell r="Q12">
+            <v>22.796986513591765</v>
+          </cell>
+          <cell r="R12">
+            <v>23.003396031916907</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>1.5</v>
+          </cell>
+          <cell r="E13">
+            <v>1.3</v>
+          </cell>
+          <cell r="G13">
+            <v>16.736255805605211</v>
+          </cell>
+          <cell r="H13">
+            <v>16.736255805605211</v>
+          </cell>
+          <cell r="I13">
+            <v>16.805067459908134</v>
+          </cell>
+          <cell r="J13">
+            <v>16.892083708033471</v>
+          </cell>
+          <cell r="K13">
+            <v>17.029867624028089</v>
+          </cell>
+          <cell r="L13">
+            <v>17.246162874513328</v>
+          </cell>
+          <cell r="M13">
+            <v>17.623009133985107</v>
+          </cell>
+          <cell r="N13">
+            <v>17.917474491621416</v>
+          </cell>
+          <cell r="O13">
+            <v>18.521513956689969</v>
+          </cell>
+          <cell r="P13">
+            <v>19.140477974986471</v>
+          </cell>
+          <cell r="Q13">
+            <v>19.883347256895416</v>
+          </cell>
+          <cell r="R13">
+            <v>20.681271879553687</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>1.5</v>
+          </cell>
+          <cell r="E14">
+            <v>1.3</v>
+          </cell>
+          <cell r="G14">
+            <v>19.835556520574045</v>
+          </cell>
+          <cell r="H14">
+            <v>19.835556520574045</v>
+          </cell>
+          <cell r="I14">
+            <v>19.917111663442132</v>
+          </cell>
+          <cell r="J14">
+            <v>20.020242784610513</v>
+          </cell>
+          <cell r="K14">
+            <v>20.183542423256238</v>
+          </cell>
+          <cell r="L14">
+            <v>20.439892909795432</v>
+          </cell>
+          <cell r="M14">
+            <v>20.88652629368875</v>
+          </cell>
+          <cell r="N14">
+            <v>21.235522969372514</v>
+          </cell>
+          <cell r="O14">
+            <v>21.951422186204912</v>
+          </cell>
+          <cell r="P14">
+            <v>22.685009636350809</v>
+          </cell>
+          <cell r="Q14">
+            <v>23.565448018671912</v>
+          </cell>
+          <cell r="R14">
+            <v>24.511136146233184</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>1.5</v>
+          </cell>
+          <cell r="E15">
+            <v>1.3</v>
+          </cell>
+          <cell r="G15">
+            <v>19.835556520574045</v>
+          </cell>
+          <cell r="H15">
+            <v>19.835556520574045</v>
+          </cell>
+          <cell r="I15">
+            <v>19.917111663442132</v>
+          </cell>
+          <cell r="J15">
+            <v>20.020242784610513</v>
+          </cell>
+          <cell r="K15">
+            <v>20.183542423256238</v>
+          </cell>
+          <cell r="L15">
+            <v>20.439892909795432</v>
+          </cell>
+          <cell r="M15">
+            <v>20.88652629368875</v>
+          </cell>
+          <cell r="N15">
+            <v>21.235522969372514</v>
+          </cell>
+          <cell r="O15">
+            <v>21.951422186204912</v>
+          </cell>
+          <cell r="P15">
+            <v>22.685009636350809</v>
+          </cell>
+          <cell r="Q15">
+            <v>23.565448018671912</v>
+          </cell>
+          <cell r="R15">
+            <v>24.511136146233184</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>1.6</v>
+          </cell>
+          <cell r="E16">
+            <v>1.125</v>
+          </cell>
+          <cell r="G16">
+            <v>20.28481591392644</v>
+          </cell>
+          <cell r="H16">
+            <v>20.28481591392644</v>
+          </cell>
+          <cell r="I16">
+            <v>20.521066070699977</v>
+          </cell>
+          <cell r="J16">
+            <v>20.852449290834866</v>
+          </cell>
+          <cell r="K16">
+            <v>21.255928527363917</v>
+          </cell>
+          <cell r="L16">
+            <v>21.937266625662073</v>
+          </cell>
+          <cell r="M16">
+            <v>22.455700357765892</v>
+          </cell>
+          <cell r="N16">
+            <v>22.902954191124465</v>
+          </cell>
+          <cell r="O16">
+            <v>23.438176499958029</v>
+          </cell>
+          <cell r="P16">
+            <v>24.091181398625451</v>
+          </cell>
+          <cell r="Q16">
+            <v>24.731587821493207</v>
+          </cell>
+          <cell r="R16">
+            <v>25.163285572090135</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>1.5</v>
+          </cell>
+          <cell r="E17">
+            <v>1.3</v>
+          </cell>
+          <cell r="G17">
+            <v>18.8024562822511</v>
+          </cell>
+          <cell r="H17">
+            <v>18.8024562822511</v>
+          </cell>
+          <cell r="I17">
+            <v>18.879763595597463</v>
+          </cell>
+          <cell r="J17">
+            <v>18.977523092418163</v>
+          </cell>
+          <cell r="K17">
+            <v>19.132317490180185</v>
+          </cell>
+          <cell r="L17">
+            <v>19.375316231368064</v>
+          </cell>
+          <cell r="M17">
+            <v>19.7986872404542</v>
+          </cell>
+          <cell r="N17">
+            <v>20.129506810122148</v>
+          </cell>
+          <cell r="O17">
+            <v>20.808119443033267</v>
+          </cell>
+          <cell r="P17">
+            <v>21.503499082562694</v>
+          </cell>
+          <cell r="Q17">
+            <v>22.338081098079744</v>
+          </cell>
+          <cell r="R17">
+            <v>23.234514724006683</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="1">
           <cell r="D1" t="str">
+            <v>Sector</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Fuel</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Unit</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>Source</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Unit</v>
+          </cell>
+          <cell r="N1">
+            <v>1995</v>
+          </cell>
+          <cell r="O1">
+            <v>1996</v>
+          </cell>
+          <cell r="P1">
+            <v>1997</v>
+          </cell>
+          <cell r="Q1">
+            <v>1998</v>
+          </cell>
+          <cell r="R1">
+            <v>1999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>Brent</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F4">
+            <v>2020</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>bbl</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K4">
+            <v>2022</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>West Texas Intermediate (WTI)</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F5">
+            <v>2020</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>bbl</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K5">
+            <v>2022</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Western Canadian Select (WCS)</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F6">
+            <v>2020</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>bbl</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K6">
+            <v>2022</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Canadian Light Sweet (CLS)</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F7">
+            <v>2020</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>bbl</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K7">
+            <v>2022</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Henry Hub</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Natural Gas</v>
+          </cell>
+          <cell r="F8">
+            <v>2020</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>MMBtu</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K8">
+            <v>2022</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>MMBtu</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Nova Inventory Transfer (NIT)</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Natural Gas</v>
+          </cell>
+          <cell r="F9">
+            <v>2020</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>MMBtu</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K9">
+            <v>2022</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>MMBtu</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>Brent</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F11">
+            <v>2020</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>West Texas Intermediate (WTI)</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F12">
+            <v>2020</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>Western Canadian Select (WCS)</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F13">
+            <v>2020</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>Canadian Light Sweet (CLS)</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Oil</v>
+          </cell>
+          <cell r="F14">
+            <v>2020</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15" t="str">
+            <v>Henry Hub</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>Natural Gas</v>
+          </cell>
+          <cell r="F15">
+            <v>2020</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16" t="str">
+            <v>Nova Inventory Transfer (NIT)</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Natural Gas</v>
+          </cell>
+          <cell r="F16">
+            <v>2020</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>calc</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17" t="str">
+            <v>Production cost</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="F17">
+            <v>2020</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K17">
+            <v>2022</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>GJ</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18" t="str">
+            <v>Production cost</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="F18">
+            <v>2020</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K18">
+            <v>2022</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>GJ</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19" t="str">
+            <v>Production cost</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Electricity</v>
+          </cell>
+          <cell r="F19">
+            <v>2020</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>CER</v>
+          </cell>
+          <cell r="K19">
+            <v>2022</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>GJ</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>CM</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>CNZ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>To</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Multiply by</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>Litre</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>l</v>
+          </cell>
+          <cell r="G4">
+            <v>3.7854000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>Gigajoule</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="G5">
+            <v>1.0550600000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Gigajoule</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>GJ</v>
+          </cell>
+          <cell r="G6">
+            <v>3.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="D1" t="str">
             <v>For prices</v>
           </cell>
           <cell r="F1" t="str">
@@ -5218,618 +5065,6 @@
         <row r="34">
           <cell r="B34" t="str">
             <v>Diesel</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60" t="str">
-            <v>NIR, Table A6-12</v>
-          </cell>
-          <cell r="G60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="H60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="I60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="J60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="K60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="L60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="M60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="N60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="O60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="P60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="Q60">
-            <v>2.4740000000000002</v>
-          </cell>
-          <cell r="R60">
-            <v>2.4740000000000002</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61" t="str">
-            <v>Assumption</v>
-          </cell>
-          <cell r="G61">
-            <v>1.924554644585263</v>
-          </cell>
-          <cell r="H61">
-            <v>1.9259654378916002</v>
-          </cell>
-          <cell r="I61">
-            <v>1.9253243980632109</v>
-          </cell>
-          <cell r="J61">
-            <v>1.9247191708830438</v>
-          </cell>
-          <cell r="K61">
-            <v>1.9237840329776548</v>
-          </cell>
-          <cell r="L61">
-            <v>1.9232955378430103</v>
-          </cell>
-          <cell r="M61">
-            <v>1.9227521702006549</v>
-          </cell>
-          <cell r="N61">
-            <v>1.923132210142374</v>
-          </cell>
-          <cell r="O61">
-            <v>1.9227220165715386</v>
-          </cell>
-          <cell r="P61">
-            <v>1.9228415170419213</v>
-          </cell>
-          <cell r="Q61">
-            <v>1.9231770712641942</v>
-          </cell>
-          <cell r="R61">
-            <v>1.9235801832666188</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62" t="str">
-            <v>NIR, Table A6-34</v>
-          </cell>
-          <cell r="G62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="H62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="I62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="J62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="K62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="L62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="M62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="N62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="O62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="P62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="Q62">
-            <v>1.2773722627737227</v>
-          </cell>
-          <cell r="R62">
-            <v>1.2773722627737227</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63" t="str">
-            <v>NIR, Table A6-8</v>
-          </cell>
-          <cell r="G63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="H63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="I63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="J63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="K63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="L63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="M63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="N63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="O63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="P63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="Q63">
-            <v>2.1850000000000001</v>
-          </cell>
-          <cell r="R63">
-            <v>2.1850000000000001</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64" t="str">
-            <v>NIR, Table A6-9</v>
-          </cell>
-          <cell r="G64">
-            <v>3.173</v>
-          </cell>
-          <cell r="H64">
-            <v>3.173</v>
-          </cell>
-          <cell r="I64">
-            <v>3.173</v>
-          </cell>
-          <cell r="J64">
-            <v>3.173</v>
-          </cell>
-          <cell r="K64">
-            <v>3.173</v>
-          </cell>
-          <cell r="L64">
-            <v>3.173</v>
-          </cell>
-          <cell r="M64">
-            <v>3.173</v>
-          </cell>
-          <cell r="N64">
-            <v>3.173</v>
-          </cell>
-          <cell r="O64">
-            <v>3.173</v>
-          </cell>
-          <cell r="P64">
-            <v>3.173</v>
-          </cell>
-          <cell r="Q64">
-            <v>3.173</v>
-          </cell>
-          <cell r="R64">
-            <v>3.173</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65" t="str">
-            <v>NIR, Table A6-4</v>
-          </cell>
-          <cell r="G65">
-            <v>2.69</v>
-          </cell>
-          <cell r="H65">
-            <v>2.69</v>
-          </cell>
-          <cell r="I65">
-            <v>2.69</v>
-          </cell>
-          <cell r="J65">
-            <v>2.69</v>
-          </cell>
-          <cell r="K65">
-            <v>2.69</v>
-          </cell>
-          <cell r="L65">
-            <v>2.69</v>
-          </cell>
-          <cell r="M65">
-            <v>2.69</v>
-          </cell>
-          <cell r="N65">
-            <v>2.69</v>
-          </cell>
-          <cell r="O65">
-            <v>2.69</v>
-          </cell>
-          <cell r="P65">
-            <v>2.69</v>
-          </cell>
-          <cell r="Q65">
-            <v>2.69</v>
-          </cell>
-          <cell r="R65">
-            <v>2.69</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="G66">
-            <v>0</v>
-          </cell>
-          <cell r="H66">
-            <v>0</v>
-          </cell>
-          <cell r="I66">
-            <v>0</v>
-          </cell>
-          <cell r="J66">
-            <v>0</v>
-          </cell>
-          <cell r="K66">
-            <v>0</v>
-          </cell>
-          <cell r="L66">
-            <v>0</v>
-          </cell>
-          <cell r="M66">
-            <v>0</v>
-          </cell>
-          <cell r="N66">
-            <v>0</v>
-          </cell>
-          <cell r="O66">
-            <v>0</v>
-          </cell>
-          <cell r="P66">
-            <v>0</v>
-          </cell>
-          <cell r="Q66">
-            <v>0</v>
-          </cell>
-          <cell r="R66">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67" t="str">
-            <v>NIR, Table A6-12</v>
-          </cell>
-          <cell r="G67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="H67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="I67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="J67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="K67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="L67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="M67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="N67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="O67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="P67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="Q67">
-            <v>1.5089999999999999</v>
-          </cell>
-          <cell r="R67">
-            <v>1.5089999999999999</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68" t="str">
-            <v>NIR, Table A6-4</v>
-          </cell>
-          <cell r="G68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="H68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="I68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="J68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="K68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="L68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="M68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="N68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="O68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="P68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="Q68">
-            <v>3.1560000000000001</v>
-          </cell>
-          <cell r="R68">
-            <v>3.1560000000000001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69" t="str">
-            <v>NIR, Table A6-4</v>
-          </cell>
-          <cell r="G69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="H69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="I69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="J69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="K69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="L69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="M69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="N69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="O69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="P69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="Q69">
-            <v>2.3159999999999998</v>
-          </cell>
-          <cell r="R69">
-            <v>2.3159999999999998</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70" t="str">
-            <v>Assumption</v>
-          </cell>
-          <cell r="G70">
-            <v>0</v>
-          </cell>
-          <cell r="H70">
-            <v>0</v>
-          </cell>
-          <cell r="I70">
-            <v>0</v>
-          </cell>
-          <cell r="J70">
-            <v>0</v>
-          </cell>
-          <cell r="K70">
-            <v>0</v>
-          </cell>
-          <cell r="L70">
-            <v>0</v>
-          </cell>
-          <cell r="M70">
-            <v>0</v>
-          </cell>
-          <cell r="N70">
-            <v>0</v>
-          </cell>
-          <cell r="O70">
-            <v>0</v>
-          </cell>
-          <cell r="P70">
-            <v>0</v>
-          </cell>
-          <cell r="Q70">
-            <v>0</v>
-          </cell>
-          <cell r="R70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71" t="str">
-            <v>NIR, Table A6-12</v>
-          </cell>
-          <cell r="G71">
-            <v>2.56</v>
-          </cell>
-          <cell r="H71">
-            <v>2.56</v>
-          </cell>
-          <cell r="I71">
-            <v>2.56</v>
-          </cell>
-          <cell r="J71">
-            <v>2.56</v>
-          </cell>
-          <cell r="K71">
-            <v>2.56</v>
-          </cell>
-          <cell r="L71">
-            <v>2.56</v>
-          </cell>
-          <cell r="M71">
-            <v>2.56</v>
-          </cell>
-          <cell r="N71">
-            <v>2.56</v>
-          </cell>
-          <cell r="O71">
-            <v>2.56</v>
-          </cell>
-          <cell r="P71">
-            <v>2.56</v>
-          </cell>
-          <cell r="Q71">
-            <v>2.56</v>
-          </cell>
-          <cell r="R71">
-            <v>2.56</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72" t="str">
-            <v>Propane</v>
-          </cell>
-          <cell r="G72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="H72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="I72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="J72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="K72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="L72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="M72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="N72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="O72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="P72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="Q72">
-            <v>1.5149999999999999</v>
-          </cell>
-          <cell r="R72">
-            <v>1.5149999999999999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73" t="str">
-            <v>NIR, Table A6.1-1</v>
-          </cell>
-          <cell r="G73">
-            <v>1.924554644585263</v>
-          </cell>
-          <cell r="H73">
-            <v>1.9259654378916002</v>
-          </cell>
-          <cell r="I73">
-            <v>1.9253243980632109</v>
-          </cell>
-          <cell r="J73">
-            <v>1.9247191708830438</v>
-          </cell>
-          <cell r="K73">
-            <v>1.9237840329776548</v>
-          </cell>
-          <cell r="L73">
-            <v>1.9232955378430103</v>
-          </cell>
-          <cell r="M73">
-            <v>1.9227521702006549</v>
-          </cell>
-          <cell r="N73">
-            <v>1.923132210142374</v>
-          </cell>
-          <cell r="O73">
-            <v>1.9227220165715386</v>
-          </cell>
-          <cell r="P73">
-            <v>1.9228415170419213</v>
-          </cell>
-          <cell r="Q73">
-            <v>1.9231770712641942</v>
-          </cell>
-          <cell r="R73">
-            <v>1.9235801832666188</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74" t="str">
-            <v>NIR, CRF</v>
-          </cell>
-          <cell r="G74">
-            <v>3.0000356605247189</v>
-          </cell>
-          <cell r="H74">
-            <v>3.0431753426921717</v>
-          </cell>
-          <cell r="I74">
-            <v>3.07213790310783</v>
-          </cell>
-          <cell r="J74">
-            <v>3.10516289453258</v>
-          </cell>
-          <cell r="K74">
-            <v>3.0991495336854187</v>
-          </cell>
-          <cell r="L74">
-            <v>3.0879960100945993</v>
-          </cell>
-          <cell r="M74">
-            <v>3.0895505145627866</v>
-          </cell>
-          <cell r="N74">
-            <v>3.1021512257577162</v>
-          </cell>
-          <cell r="O74">
-            <v>3.1115041975724957</v>
-          </cell>
-          <cell r="P74">
-            <v>3.109225057676468</v>
-          </cell>
-          <cell r="Q74">
-            <v>3.1102383528432611</v>
-          </cell>
-          <cell r="R74">
-            <v>3.0871775329056392</v>
           </cell>
         </row>
       </sheetData>
@@ -6154,21 +5389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471D3CAC-42B8-4EF1-AE58-B0CCBB0B139D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7362AC92-5A96-4193-A58B-B6DC1A725A10}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6242,7 +5477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6298,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6315,7 +5550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -6332,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6354,52 +5589,52 @@
       <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="M6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(M$2,[1]!CIMS_year))</f>
         <v>11683290</v>
       </c>
-      <c r="N6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(N$2,[1]!CIMS_year))</f>
         <v>12528663</v>
       </c>
-      <c r="O6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(O$2,[1]!CIMS_year))</f>
         <v>13135778</v>
       </c>
-      <c r="P6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
+      <c r="P6" cm="1">
+        <f t="array" ref="P6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(P$2,[1]!CIMS_year))</f>
         <v>13707118</v>
       </c>
-      <c r="Q6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
+      <c r="Q6" cm="1">
+        <f t="array" ref="Q6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(Q$2,[1]!CIMS_year))</f>
         <v>14745712</v>
       </c>
-      <c r="R6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
+      <c r="R6" cm="1">
+        <f t="array" ref="R6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(R$2,[1]!CIMS_year))</f>
         <v>15465400</v>
       </c>
-      <c r="S6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
+      <c r="S6" cm="1">
+        <f t="array" ref="S6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(S$2,[1]!CIMS_year))</f>
         <v>16239800</v>
       </c>
-      <c r="T6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
+      <c r="T6" cm="1">
+        <f t="array" ref="T6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(T$2,[1]!CIMS_year))</f>
         <v>16942700</v>
       </c>
-      <c r="U6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
+      <c r="U6" cm="1">
+        <f t="array" ref="U6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(U$2,[1]!CIMS_year))</f>
         <v>17554000</v>
       </c>
-      <c r="V6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
+      <c r="V6" cm="1">
+        <f t="array" ref="V6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(V$2,[1]!CIMS_year))</f>
         <v>18190299.614554629</v>
       </c>
-      <c r="W6">
-        <f ca="1">INDEX([1]!pyCIMS_population,MATCH($C6,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
+      <c r="W6" cm="1">
+        <f t="array" ref="W6">INDEX([1]!CIMS_population,_xlfn.XMATCH($C6,[1]!region_CIMS),_xlfn.XMATCH(W$2,[1]!CIMS_year))</f>
         <v>18810127.574946489</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6421,48 +5656,48 @@
       <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="M7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(M$2,[1]!pyCIMS_year,0))</f>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(M$2,[1]!CIMS_year))</f>
         <v>625551.39030649094</v>
       </c>
-      <c r="N7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(N$2,[1]!pyCIMS_year,0))</f>
+      <c r="N7" cm="1">
+        <f t="array" ref="N7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(N$2,[1]!CIMS_year))</f>
         <v>706743.47482148267</v>
       </c>
-      <c r="O7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(O$2,[1]!pyCIMS_year,0))</f>
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(O$2,[1]!CIMS_year))</f>
         <v>723831.37749221735</v>
       </c>
-      <c r="P7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(P$2,[1]!pyCIMS_year,0))</f>
+      <c r="P7" cm="1">
+        <f t="array" ref="P7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(P$2,[1]!CIMS_year))</f>
         <v>799780.92126918025</v>
       </c>
-      <c r="Q7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(Q$2,[1]!pyCIMS_year,0))</f>
+      <c r="Q7" cm="1">
+        <f t="array" ref="Q7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(Q$2,[1]!CIMS_year))</f>
         <v>840840.8710141218</v>
       </c>
-      <c r="R7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(R$2,[1]!pyCIMS_year,0))</f>
+      <c r="R7" cm="1">
+        <f t="array" ref="R7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(R$2,[1]!CIMS_year))</f>
         <v>949038.97595050232</v>
       </c>
-      <c r="S7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(S$2,[1]!pyCIMS_year,0))</f>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(S$2,[1]!CIMS_year))</f>
         <v>1051229.1619671376</v>
       </c>
-      <c r="T7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(T$2,[1]!pyCIMS_year,0))</f>
+      <c r="T7" cm="1">
+        <f t="array" ref="T7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(T$2,[1]!CIMS_year))</f>
         <v>1156110.8136380666</v>
       </c>
-      <c r="U7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(U$2,[1]!pyCIMS_year,0))</f>
+      <c r="U7" cm="1">
+        <f t="array" ref="U7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(U$2,[1]!CIMS_year))</f>
         <v>1277087.680176323</v>
       </c>
-      <c r="V7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(V$2,[1]!pyCIMS_year,0))</f>
+      <c r="V7" cm="1">
+        <f t="array" ref="V7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(V$2,[1]!CIMS_year))</f>
         <v>1410173.5242795805</v>
       </c>
-      <c r="W7">
-        <f ca="1">INDEX([1]!pyCIMS_GDP,MATCH($C7,[1]!region_CIMS,0),MATCH(W$2,[1]!pyCIMS_year,0))</f>
+      <c r="W7" cm="1">
+        <f t="array" ref="W7">INDEX([1]!CIMS_GDP,_xlfn.XMATCH($C7,[1]!region_CIMS),_xlfn.XMATCH(W$2,[1]!CIMS_year))</f>
         <v>1550328.9898299354</v>
       </c>
     </row>
